--- a/biology/Zoologie/Cipaye_écarlate/Cipaye_écarlate.xlsx
+++ b/biology/Zoologie/Cipaye_écarlate/Cipaye_écarlate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cipaye_%C3%A9carlate</t>
+          <t>Cipaye_écarlate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpodacus sipahi
 Le Cipaye écarlate (Carpodacus sipahi) est une espèce d'oiseaux de la famille des Fringillidae. Son aire s'étend à travers l'Uttarakhand, l'Est de l'Himalaya et le Nord du Yunnan ; il hiverne jusqu'en Birmanie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cipaye_%C3%A9carlate</t>
+          <t>Cipaye_écarlate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Carpodacus sipahi a été décrite pour la première fois en 1836 par le naturaliste anglais Brian Houghton Hodgson (1800-1894) sous le protonyme Corythus sipahi[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Carpodacus sipahi a été décrite pour la première fois en 1836 par le naturaliste anglais Brian Houghton Hodgson (1800-1894) sous le protonyme Corythus sipahi,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cipaye_%C3%A9carlate</t>
+          <t>Cipaye_écarlate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) B. H. Hodgson, « Notices of the Ornithology of Nèpál », Asiatic Researches, vol. 19,‎ 1836, p. 143-192 (lire en ligne)</t>
         </is>
